--- a/CASUAL/LA MAHOGANY MARKET/CABANLIT, ZOSIMA.xlsx
+++ b/CASUAL/LA MAHOGANY MARKET/CABANLIT, ZOSIMA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>12/09,12,15,19,26/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -993,7 +996,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1322,12 +1325,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K142"/>
+  <dimension ref="A2:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5:G5"/>
-      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
+      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1493,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>30.221000000000004</v>
+        <v>31.471000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1500,7 +1503,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>33</v>
+        <v>34.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3277,13 +3280,15 @@
         <v>45291</v>
       </c>
       <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="40"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="40"/>
       <c r="I93" s="9"/>
@@ -3291,8 +3296,8 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="41">
-        <v>45322</v>
+      <c r="A94" s="47" t="s">
+        <v>91</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3310,9 +3315,11 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41">
-        <v>45351</v>
-      </c>
-      <c r="B95" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C95" s="13"/>
       <c r="D95" s="40"/>
       <c r="E95" s="9"/>
@@ -3324,11 +3331,13 @@
       <c r="H95" s="40"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="48">
+        <v>45305</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3346,7 +3355,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3364,7 +3373,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3381,7 +3390,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="41"/>
+      <c r="A99" s="41">
+        <v>45443</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="40"/>
@@ -4069,20 +4080,36 @@
       <c r="K141" s="20"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="42"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="43"/>
-      <c r="D142" s="44"/>
+      <c r="A142" s="41"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="40"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H142" s="44"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="40"/>
       <c r="I142" s="9"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="15"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="42"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="44"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="44"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/CASUAL/LA MAHOGANY MARKET/CABANLIT, ZOSIMA.xlsx
+++ b/CASUAL/LA MAHOGANY MARKET/CABANLIT, ZOSIMA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>1/19,21/2024</t>
   </si>
 </sst>
 </file>
@@ -996,7 +999,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1325,12 +1328,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K143"/>
+  <dimension ref="A2:K144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5:G5"/>
-      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
+      <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1506,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>34.25</v>
+        <v>32.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3336,10 +3339,10 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="41">
-        <v>45351</v>
-      </c>
-      <c r="B96" s="20"/>
+      <c r="A96" s="41"/>
+      <c r="B96" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C96" s="13"/>
       <c r="D96" s="40"/>
       <c r="E96" s="9"/>
@@ -3348,14 +3351,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H96" s="40"/>
+      <c r="H96" s="40">
+        <v>2</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="48" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3373,7 +3380,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3391,7 +3398,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3408,7 +3415,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="41"/>
+      <c r="A100" s="41">
+        <v>45443</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="40"/>
@@ -4096,20 +4105,36 @@
       <c r="K142" s="20"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="42"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="43"/>
-      <c r="D143" s="44"/>
+      <c r="A143" s="41"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="40"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H143" s="44"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="40"/>
       <c r="I143" s="9"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="15"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="42"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="43"/>
+      <c r="D144" s="44"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="44"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/CASUAL/LA MAHOGANY MARKET/CABANLIT, ZOSIMA.xlsx
+++ b/CASUAL/LA MAHOGANY MARKET/CABANLIT, ZOSIMA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -547,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,6 +722,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,7 +1000,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1328,12 +1329,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K144"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
-      <selection activeCell="F5" sqref="F5:G5"/>
-      <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
+      <selection activeCell="I9" activeCellId="3" sqref="E9 E9 E9 I9"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1497,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>31.471000000000004</v>
+        <v>67.942000000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1506,7 +1507,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>32.25</v>
+        <v>67.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1540,13 +1541,15 @@
       <c r="B11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D11" s="40"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H11" s="40">
         <v>1</v>
@@ -1558,7 +1561,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="41">
+        <v>43678</v>
+      </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13">
         <v>1.25</v>
@@ -1577,9 +1582,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
-        <v>43678</v>
-      </c>
-      <c r="B13" s="20"/>
+        <v>43709</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C13" s="13">
         <v>1.25</v>
       </c>
@@ -1590,38 +1597,42 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="40">
+        <v>2</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="20" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
-        <v>43709</v>
-      </c>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="42">
+        <v>43739</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="43">
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="43">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>43770</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H14" s="40">
-        <v>2</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="20"/>
       <c r="C15" s="13">
         <v>1.25</v>
       </c>
@@ -1632,38 +1643,40 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H15" s="40"/>
+      <c r="H15" s="40">
+        <v>2</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="20"/>
+      <c r="K15" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="42">
-        <v>43739</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="43">
-        <v>1.25</v>
-      </c>
-      <c r="D16" s="44"/>
+      <c r="A16" s="41">
+        <v>43800</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="40"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="43">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H16" s="44"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="40"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="15"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
-        <v>43770</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="A17" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="20"/>
       <c r="C17" s="13"/>
       <c r="D17" s="40"/>
       <c r="E17" s="9"/>
@@ -1672,17 +1685,15 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H17" s="40">
-        <v>2</v>
-      </c>
+      <c r="H17" s="40"/>
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="41">
+        <v>43831</v>
+      </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
         <v>1.25</v>
@@ -1701,9 +1712,11 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
-        <v>43800</v>
-      </c>
-      <c r="B19" s="20"/>
+        <v>43862</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C19" s="13">
         <v>1.25</v>
       </c>
@@ -1717,29 +1730,37 @@
       <c r="H19" s="40"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="20" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="41">
+        <v>43891</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D20" s="40"/>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H20" s="40"/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H20" s="40">
+        <v>1</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13">
@@ -1759,28 +1780,28 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
-        <v>43862</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="13"/>
+        <v>43952</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D22" s="40"/>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H22" s="40"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="41">
+        <v>43983</v>
+      </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13">
         <v>1.25</v>
@@ -1799,29 +1820,33 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
-        <v>43891</v>
+        <v>44013</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D24" s="40"/>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G24" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H24" s="40">
         <v>1</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="48">
+        <v>44025</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
-        <v>43922</v>
+        <v>44044</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
@@ -1841,28 +1866,28 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
-        <v>43952</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="13">
-        <v>1.25</v>
-      </c>
+        <v>44075</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="13"/>
       <c r="D26" s="40"/>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G26" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H26" s="40"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="48">
+        <v>44078</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="41">
-        <v>43983</v>
-      </c>
+      <c r="A27" s="41"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
         <v>1.25</v>
@@ -1881,30 +1906,28 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
-        <v>44013</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="13"/>
+        <v>44105</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D28" s="40"/>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H28" s="40">
-        <v>1</v>
-      </c>
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H28" s="40"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="48">
-        <v>44025</v>
-      </c>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="41">
+        <v>44136</v>
+      </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13">
         <v>1.25</v>
@@ -1923,13 +1946,17 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
-        <v>44044</v>
-      </c>
-      <c r="B30" s="20"/>
+        <v>44166</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C30" s="13">
         <v>1.25</v>
       </c>
-      <c r="D30" s="40"/>
+      <c r="D30" s="40">
+        <v>5</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
       <c r="G30" s="13">
@@ -1942,12 +1969,10 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="41">
-        <v>44075</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="A31" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="40"/>
       <c r="E31" s="9"/>
@@ -1959,12 +1984,12 @@
       <c r="H31" s="40"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="48">
-        <v>44078</v>
-      </c>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="A32" s="41">
+        <v>44197</v>
+      </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13">
         <v>1.25</v>
@@ -1983,7 +2008,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
-        <v>44105</v>
+        <v>44228</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13">
@@ -2003,7 +2028,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
-        <v>44136</v>
+        <v>44256</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -2023,20 +2048,18 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
-        <v>44166</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="40">
-        <v>5</v>
-      </c>
+        <v>44287</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D35" s="40"/>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G35" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H35" s="40"/>
       <c r="I35" s="9"/>
@@ -2044,7 +2067,9 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="41">
+        <v>44317</v>
+      </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13">
         <v>1.25</v>
@@ -2062,26 +2087,34 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="13"/>
+      <c r="A37" s="41">
+        <v>44348</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D37" s="40"/>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H37" s="40"/>
+      <c r="G37" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H37" s="40">
+        <v>2</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
+      <c r="K37" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
-        <v>44197</v>
+        <v>44378</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13">
@@ -2101,7 +2134,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
-        <v>44228</v>
+        <v>44409</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13">
@@ -2121,7 +2154,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
-        <v>44256</v>
+        <v>44440</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
@@ -2141,7 +2174,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
-        <v>44287</v>
+        <v>44470</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -2161,7 +2194,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
-        <v>44317</v>
+        <v>44501</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
@@ -2181,40 +2214,42 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
-        <v>44348</v>
+        <v>44531</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="40"/>
+        <v>56</v>
+      </c>
+      <c r="C43" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D43" s="40">
+        <v>5</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H43" s="40">
-        <v>2</v>
-      </c>
+      <c r="G43" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H43" s="40"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
       <c r="K43" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+      <c r="A44" s="47" t="s">
+        <v>58</v>
+      </c>
       <c r="B44" s="20"/>
-      <c r="C44" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C44" s="13"/>
       <c r="D44" s="40"/>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G44" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H44" s="40"/>
       <c r="I44" s="9"/>
@@ -2223,9 +2258,11 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
-        <v>44378</v>
-      </c>
-      <c r="B45" s="20"/>
+        <v>44562</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C45" s="13">
         <v>1.25</v>
       </c>
@@ -2239,11 +2276,13 @@
       <c r="H45" s="40"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
-        <v>44409</v>
+        <v>44593</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -2263,13 +2302,17 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
-        <v>44440</v>
-      </c>
-      <c r="B47" s="20"/>
+        <v>44621</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C47" s="13">
         <v>1.25</v>
       </c>
-      <c r="D47" s="40"/>
+      <c r="D47" s="40">
+        <v>1</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
@@ -2282,19 +2325,19 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="41">
-        <v>44470</v>
-      </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D48" s="40"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="40">
+        <v>0.10600000000000001</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G48" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H48" s="40"/>
       <c r="I48" s="9"/>
@@ -2303,13 +2346,17 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
-        <v>44501</v>
-      </c>
-      <c r="B49" s="20"/>
+        <v>44652</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
-      <c r="D49" s="40"/>
+      <c r="D49" s="40">
+        <v>0.14400000000000002</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13">
@@ -2319,44 +2366,50 @@
       <c r="H49" s="40"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="K49" s="48">
+        <v>44632</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
-        <v>44531</v>
+        <v>44682</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="13"/>
+        <v>75</v>
+      </c>
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D50" s="40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H50" s="40"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
       <c r="K50" s="20" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D51" s="40"/>
+      <c r="B51" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="40">
+        <v>0.20200000000000001</v>
+      </c>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G51" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="9"/>
@@ -2364,32 +2417,40 @@
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="40"/>
+      <c r="A52" s="41">
+        <v>44713</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D52" s="40">
+        <v>3</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H52" s="40"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="41">
-        <v>44562</v>
-      </c>
+      <c r="A53" s="41"/>
       <c r="B53" s="20" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="40"/>
+      <c r="D53" s="40">
+        <v>0.12300000000000001</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13" t="str">
@@ -2399,17 +2460,21 @@
       <c r="H53" s="40"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="41">
+        <v>44743</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
-      <c r="D54" s="40"/>
+      <c r="D54" s="40">
+        <v>3</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
@@ -2419,22 +2484,24 @@
       <c r="H54" s="40"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
+      <c r="K54" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="41">
-        <v>44593</v>
-      </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D55" s="40"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="40">
+        <v>9.1999999999999998E-2</v>
+      </c>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G55" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H55" s="40"/>
       <c r="I55" s="9"/>
@@ -2443,16 +2510,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
-        <v>44621</v>
+        <v>44774</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C56" s="13">
         <v>1.25</v>
       </c>
       <c r="D56" s="40">
-        <v>1</v>
+        <v>0.437</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
@@ -2466,85 +2533,81 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
+      <c r="A57" s="41">
+        <v>44805</v>
+      </c>
       <c r="B57" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="40">
-        <v>0.10600000000000001</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C57" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D57" s="40"/>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G57" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H57" s="40"/>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
+      <c r="K57" s="48" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="41">
-        <v>44652</v>
-      </c>
+      <c r="A58" s="41"/>
       <c r="B58" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D58" s="40">
-        <v>0.14400000000000002</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="40"/>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H58" s="40"/>
+      <c r="G58" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H58" s="40">
+        <v>1</v>
+      </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
       <c r="K58" s="48">
-        <v>44632</v>
+        <v>44815</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="41">
-        <v>44682</v>
-      </c>
+      <c r="A59" s="41"/>
       <c r="B59" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D59" s="40">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="40"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H59" s="40"/>
+      <c r="G59" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H59" s="40">
+        <v>6</v>
+      </c>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
       <c r="K59" s="20" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="40">
-        <v>0.20200000000000001</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
@@ -2559,16 +2622,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
-        <v>44713</v>
+        <v>44835</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C61" s="13">
         <v>1.25</v>
       </c>
       <c r="D61" s="40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
@@ -2580,17 +2643,17 @@
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
       <c r="K61" s="20" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="40">
-        <v>0.12300000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
@@ -2605,16 +2668,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
-        <v>44743</v>
+        <v>44866</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C63" s="13">
         <v>1.25</v>
       </c>
       <c r="D63" s="40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
@@ -2625,18 +2688,18 @@
       <c r="H63" s="40"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20" t="s">
-        <v>81</v>
+      <c r="K63" s="48">
+        <v>44866</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="20" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="40">
-        <v>9.1999999999999998E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
@@ -2647,20 +2710,20 @@
       <c r="H64" s="40"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="48"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
-        <v>44774</v>
+        <v>44896</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
       <c r="D65" s="40">
-        <v>0.437</v>
+        <v>5</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
@@ -2671,85 +2734,81 @@
       <c r="H65" s="40"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="20" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="41">
-        <v>44805</v>
-      </c>
+      <c r="A66" s="41"/>
       <c r="B66" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C66" s="13">
-        <v>1.25</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C66" s="13"/>
       <c r="D66" s="40"/>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H66" s="40"/>
+      <c r="G66" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H66" s="40">
+        <v>3</v>
+      </c>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="48" t="s">
-        <v>60</v>
+      <c r="K66" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="20" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C67" s="13"/>
-      <c r="D67" s="40"/>
+      <c r="D67" s="40">
+        <v>1</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H67" s="40">
-        <v>1</v>
-      </c>
+      <c r="H67" s="40"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
       <c r="K67" s="48">
-        <v>44815</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="20" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C68" s="13"/>
-      <c r="D68" s="40"/>
+      <c r="D68" s="40">
+        <v>0.5</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H68" s="40">
-        <v>6</v>
-      </c>
+      <c r="H68" s="40"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20" t="s">
-        <v>63</v>
-      </c>
+      <c r="K68" s="48"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
-      <c r="B69" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="A69" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="20"/>
       <c r="C69" s="13"/>
-      <c r="D69" s="40">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="D69" s="40"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13" t="str">
@@ -2763,17 +2822,15 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
-        <v>44835</v>
+        <v>44957</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="40">
-        <v>2</v>
-      </c>
+      <c r="D70" s="40"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -2783,43 +2840,41 @@
       <c r="H70" s="40"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20" t="s">
-        <v>76</v>
+      <c r="K70" s="48">
+        <v>44940</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="20" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C71" s="13"/>
-      <c r="D71" s="40">
-        <v>0.01</v>
-      </c>
+      <c r="D71" s="40"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H71" s="40"/>
+      <c r="H71" s="40">
+        <v>1</v>
+      </c>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
+      <c r="K71" s="48">
+        <v>44955</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
-        <v>44866</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>72</v>
-      </c>
+        <v>44985</v>
+      </c>
+      <c r="B72" s="20"/>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="40">
-        <v>1</v>
-      </c>
+      <c r="D72" s="40"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -2829,43 +2884,43 @@
       <c r="H72" s="40"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="48">
-        <v>44866</v>
-      </c>
+      <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
+      <c r="A73" s="41">
+        <v>45016</v>
+      </c>
       <c r="B73" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="40">
-        <v>1.4999999999999999E-2</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D73" s="40"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H73" s="40"/>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H73" s="40">
+        <v>3</v>
+      </c>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="48"/>
+      <c r="K73" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
-        <v>44896</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>53</v>
-      </c>
+        <v>45046</v>
+      </c>
+      <c r="B74" s="20"/>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="40">
-        <v>5</v>
-      </c>
+      <c r="D74" s="40"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
@@ -2875,86 +2930,88 @@
       <c r="H74" s="40"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20" t="s">
-        <v>64</v>
-      </c>
+      <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
-      <c r="B75" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="13"/>
+      <c r="A75" s="41">
+        <v>45077</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="40"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H75" s="40">
-        <v>3</v>
-      </c>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H75" s="40"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20" t="s">
-        <v>66</v>
-      </c>
+      <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="41"/>
+      <c r="A76" s="41">
+        <v>45107</v>
+      </c>
       <c r="B76" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="40">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D76" s="40"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="40"/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H76" s="40">
+        <v>2</v>
+      </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="48">
-        <v>44921</v>
+      <c r="K76" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
-      <c r="B77" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="40">
-        <v>0.5</v>
-      </c>
+      <c r="A77" s="41">
+        <v>45138</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D77" s="40"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="40"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="48"/>
+      <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="47" t="s">
-        <v>67</v>
+      <c r="A78" s="41">
+        <v>45169</v>
       </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="40"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="9"/>
@@ -2963,10 +3020,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
-        <v>44957</v>
+        <v>45199</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C79" s="13">
         <v>1.25</v>
@@ -2978,17 +3035,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H79" s="40"/>
+      <c r="H79" s="40">
+        <v>1</v>
+      </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="48">
-        <v>44940</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="20" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="40"/>
@@ -2999,19 +3058,21 @@
         <v/>
       </c>
       <c r="H80" s="40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="48">
-        <v>44955</v>
+      <c r="K80" s="48" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
-        <v>44985</v>
-      </c>
-      <c r="B81" s="20"/>
+        <v>45230</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C81" s="13">
         <v>1.25</v>
       </c>
@@ -3022,17 +3083,21 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H81" s="40"/>
+      <c r="H81" s="40">
+        <v>2</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
-        <v>45016</v>
+        <v>45260</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C82" s="13">
         <v>1.25</v>
@@ -3045,37 +3110,36 @@
         <v>1.25</v>
       </c>
       <c r="H82" s="40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20" t="s">
-        <v>68</v>
+      <c r="K82" s="48">
+        <v>45254</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="41">
-        <v>45046</v>
-      </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D83" s="40"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="40">
+        <v>5</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G83" s="13"/>
       <c r="H83" s="40"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
-        <v>45077</v>
+        <v>45291</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -3094,36 +3158,30 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="41">
-        <v>45107</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C85" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A85" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="20"/>
+      <c r="C85" s="13"/>
       <c r="D85" s="40"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H85" s="40">
-        <v>2</v>
-      </c>
+      <c r="G85" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H85" s="40"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
-        <v>45138</v>
-      </c>
-      <c r="B86" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C86" s="13">
         <v>1.25</v>
       </c>
@@ -3137,44 +3195,46 @@
       <c r="H86" s="40"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="48">
+        <v>45305</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="41">
-        <v>45169</v>
-      </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A87" s="41"/>
+      <c r="B87" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="13"/>
       <c r="D87" s="40"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H87" s="40"/>
+      <c r="G87" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H87" s="40">
+        <v>2</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="48" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41">
-        <v>45199</v>
+        <v>45351</v>
       </c>
       <c r="B88" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C88" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C88" s="13"/>
       <c r="D88" s="40"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G88" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H88" s="40">
         <v>1</v>
@@ -3182,14 +3242,14 @@
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
       <c r="K88" s="48">
-        <v>45173</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="41"/>
-      <c r="B89" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="A89" s="41">
+        <v>45382</v>
+      </c>
+      <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="40"/>
       <c r="E89" s="9"/>
@@ -3198,100 +3258,73 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H89" s="40">
-        <v>3</v>
-      </c>
+      <c r="H89" s="40"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="48" t="s">
-        <v>70</v>
-      </c>
+      <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41">
-        <v>45230</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C90" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45412</v>
+      </c>
+      <c r="B90" s="20"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="40"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H90" s="40">
-        <v>2</v>
-      </c>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="40"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41">
-        <v>45260</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45443</v>
+      </c>
+      <c r="B91" s="20"/>
+      <c r="C91" s="13"/>
       <c r="D91" s="40"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H91" s="40">
-        <v>1</v>
-      </c>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H91" s="40"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="48">
-        <v>45254</v>
-      </c>
+      <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
-      <c r="B92" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="B92" s="20"/>
       <c r="C92" s="13"/>
-      <c r="D92" s="40">
-        <v>5</v>
-      </c>
+      <c r="D92" s="40"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13"/>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H92" s="40"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="41">
-        <v>45291</v>
-      </c>
+      <c r="A93" s="41"/>
       <c r="B93" s="20"/>
-      <c r="C93" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C93" s="13"/>
       <c r="D93" s="40"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G93" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H93" s="40"/>
       <c r="I93" s="9"/>
@@ -3299,9 +3332,7 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="47" t="s">
-        <v>91</v>
-      </c>
+      <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="40"/>
@@ -3317,12 +3348,8 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="41">
-        <v>45322</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="A95" s="41"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="40"/>
       <c r="E95" s="9"/>
@@ -3334,15 +3361,11 @@
       <c r="H95" s="40"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="48">
-        <v>45305</v>
-      </c>
+      <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
-      <c r="B96" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="40"/>
       <c r="E96" s="9"/>
@@ -3351,19 +3374,13 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H96" s="40">
-        <v>2</v>
-      </c>
+      <c r="H96" s="40"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="48" t="s">
-        <v>92</v>
-      </c>
+      <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="41">
-        <v>45351</v>
-      </c>
+      <c r="A97" s="41"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="40"/>
@@ -3379,9 +3396,7 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="41">
-        <v>45382</v>
-      </c>
+      <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="40"/>
@@ -3397,9 +3412,7 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="41">
-        <v>45412</v>
-      </c>
+      <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="40"/>
@@ -3415,9 +3428,7 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="41">
-        <v>45443</v>
-      </c>
+      <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="40"/>
@@ -3977,164 +3988,20 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="40"/>
+      <c r="A135" s="42"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="44"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="40"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="44"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="20"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="40"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="40"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="20"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="41"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="40"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="40"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="20"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="41"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="40"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="40"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="20"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="41"/>
-      <c r="B139" s="20"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="40"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="20"/>
-      <c r="G139" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="40"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="20"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="41"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="40"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H140" s="40"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="20"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="41"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="40"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H141" s="40"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="11"/>
-      <c r="K141" s="20"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="41"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="40"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H142" s="40"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="11"/>
-      <c r="K142" s="20"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="41"/>
-      <c r="B143" s="20"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="40"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H143" s="40"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="11"/>
-      <c r="K143" s="20"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="42"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="43"/>
-      <c r="D144" s="44"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H144" s="44"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="15"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4180,8 +4047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4241,8 +4108,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="11">
+        <v>33.971000000000004</v>
+      </c>
+      <c r="B3" s="11">
+        <v>33.75</v>
+      </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
         <v>0</v>
@@ -4303,6 +4174,7 @@
       <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
       <c r="C7" s="38">
         <v>1</v>
       </c>
